--- a/writable/temp/template setor peminat.xlsx
+++ b/writable/temp/template setor peminat.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="707">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Nama Customer</t>
+    <t>Nama Peminat</t>
   </si>
   <si>
     <t>No WA</t>
@@ -2103,18 +2103,12 @@
     <t>Badal Haji</t>
   </si>
   <si>
-    <t>Haji Tanpa Antri 2025</t>
-  </si>
-  <si>
     <t>Umroh Tanur</t>
   </si>
   <si>
     <t>Umroh Ramadhan 2025</t>
   </si>
   <si>
-    <t>Umroh Mudah</t>
-  </si>
-  <si>
     <t>Seminar Pramanasik Lombok</t>
   </si>
   <si>
@@ -2131,6 +2125,18 @@
   </si>
   <si>
     <t>Jadi Agent</t>
+  </si>
+  <si>
+    <t>Webinar Umroh Edukasi</t>
+  </si>
+  <si>
+    <t>Webinar Haji Tanpa Antri</t>
+  </si>
+  <si>
+    <t>Webinar Umroh Ramadhan</t>
+  </si>
+  <si>
+    <t>Webinar Umroh Mudah</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2519,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1428571428571" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2573,7 +2579,7 @@
   <dimension ref="A1:B685"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B14" sqref="B1:B4"/>
+      <selection activeCell="B16" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1428571428571" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2698,10 +2704,16 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="B15" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:2">
